--- a/Mock_Data/Organizations.xlsx
+++ b/Mock_Data/Organizations.xlsx
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d83216ade753ec4a/ΕΜΠ/ΡΟΗ Λ/ΒΑΣΕΙΣ ΔΕΔΟΜΕΝΩΝ/ΕΡΓΑΣΙΑ/DB_Project_ELIDEK_2022/Mock_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_24C8417E9421176F3AFDB80C3A2C459EA88751A0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90249225-DC37-4745-9FFC-5ECD08A29A95}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_24C8417E9421176F3AFDB80C3A2C459EA88751A0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{230DAABB-FC6D-4F43-951D-B822382B6DC5}"/>
   <bookViews>
-    <workbookView xWindow="11775" yWindow="2190" windowWidth="21750" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="12645" yWindow="825" windowWidth="22920" windowHeight="18795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -874,14 +886,14 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.125" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
@@ -974,7 +986,7 @@
         <v>7</v>
       </c>
       <c r="F4">
-        <v>3271</v>
+        <v>13271</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -1020,7 +1032,7 @@
         <v>515</v>
       </c>
       <c r="F6">
-        <v>3144</v>
+        <v>83144</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -1043,7 +1055,7 @@
         <v>630</v>
       </c>
       <c r="F7">
-        <v>2443</v>
+        <v>62443</v>
       </c>
       <c r="G7" t="s">
         <v>30</v>
